--- a/materialy/mestske-firmy/organy-politicke-osoby-brezen-2018.xlsx
+++ b/materialy/mestske-firmy/organy-politicke-osoby-brezen-2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="270">
   <si>
     <t xml:space="preserve">Političtí členové představenstev městských firem</t>
   </si>
@@ -475,52 +475,55 @@
     <t xml:space="preserve">Marcela Dudková</t>
   </si>
   <si>
+    <t xml:space="preserve">Stanislav Nekolný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomáš Jílek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondřej Prokop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Šlegr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Vrzal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrik Nacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matěj Fichtner (P8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iveta Borská</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pavel Mareš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaroslava Nguyenová</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Kopecký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luboš Koželuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcela Plesníková</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Štěpán Stupčuk (P6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petr Klepáček</t>
+  </si>
+  <si>
     <t xml:space="preserve">Radomír Nepil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomáš Jílek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ondřej Prokop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petr Šlegr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanislav Nekolný</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan Vrzal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrik Nacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petr David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matěj Fichtner (P8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iveta Borská</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavel Mareš</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaroslava Nguyenová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luboš Koželuh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcela Plesníková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Štěpán Stupčuk (P6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petr Klepáček</t>
   </si>
   <si>
     <t xml:space="preserve">Petra Zemanová</t>
@@ -1174,7 +1177,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1292,6 +1295,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1407,7 +1414,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="G57" activeCellId="0" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2410,30 +2417,31 @@
       <c r="F39" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="F40" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="H40" s="26" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2460,13 +2468,13 @@
         <v>166</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,13 +2482,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2494,19 +2502,19 @@
         <v>39</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,7 +2522,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>38</v>
@@ -2531,13 +2539,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2548,7 +2556,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>38</v>
@@ -2565,24 +2573,24 @@
         <v>57</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="31" t="s">
         <v>145</v>
       </c>
       <c r="I47" s="26" t="s">
@@ -2594,28 +2602,28 @@
         <v>61</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,13 +2631,13 @@
         <v>66</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2643,57 +2651,57 @@
         <v>139</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>153</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,10 +2709,10 @@
         <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>145</v>
@@ -2718,31 +2726,31 @@
         <v>80</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G53" s="31" t="s">
         <v>218</v>
       </c>
+      <c r="G53" s="32" t="s">
+        <v>219</v>
+      </c>
       <c r="H53" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,28 +2758,28 @@
         <v>86</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="G54" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I54" s="24" t="s">
         <v>222</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,13 +2787,13 @@
         <v>87</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>164</v>
@@ -2794,10 +2802,10 @@
         <v>117</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,22 +2813,22 @@
         <v>93</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,28 +2836,28 @@
         <v>98</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H57" s="26" t="s">
         <v>139</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,22 +2865,22 @@
         <v>103</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,19 +2888,19 @@
         <v>108</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>107</v>
@@ -2903,22 +2911,22 @@
         <v>114</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,82 +2934,82 @@
         <v>120</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
     </row>
     <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
     </row>
     <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="33" t="s">
-        <v>265</v>
+      <c r="A69" s="34" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="31" t="s">
-        <v>267</v>
+      <c r="A71" s="32" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/materialy/mestske-firmy/organy-politicke-osoby-brezen-2018.xlsx
+++ b/materialy/mestske-firmy/organy-politicke-osoby-brezen-2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="268">
   <si>
     <t xml:space="preserve">Političtí členové představenstev městských firem</t>
   </si>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">Technologie hl. m. Prahy</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomáš Jílek (NEZ)</t>
+    <t xml:space="preserve">Tomáš Jílek</t>
   </si>
   <si>
     <t xml:space="preserve">Tomáš Novotný</t>
@@ -478,9 +478,6 @@
     <t xml:space="preserve">Radomír Nepil</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomáš Jílek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ondřej Prokop</t>
   </si>
   <si>
@@ -556,7 +553,7 @@
     <t xml:space="preserve">Tomáš Máčalík</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrea Dědová</t>
+    <t xml:space="preserve">ř</t>
   </si>
   <si>
     <t xml:space="preserve">Tomáš Rataj</t>
@@ -836,7 +833,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -858,87 +855,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -973,7 +889,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,50 +898,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF999999"/>
+        <fgColor rgb="FFC697E7"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC697E7"/>
-        <bgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1054,14 +934,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -1077,7 +951,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1085,23 +959,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1125,216 +984,148 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1346,13 +1137,13 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1377,7 +1168,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFC697E7"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1406,8 +1197,8 @@
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2222,10 +2013,10 @@
       <c r="A30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -2245,7 +2036,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -2277,37 +2068,37 @@
       <c r="E34" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="22" t="s">
         <v>130</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="L34" s="24" t="s">
+      <c r="L34" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="N34" s="26" t="s">
+      <c r="N34" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="O34" s="27" t="s">
+      <c r="O34" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="P34" s="26" t="s">
+      <c r="P34" s="25" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2353,7 +2144,7 @@
       <c r="A37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -2399,19 +2190,19 @@
         <v>151</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="F39" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,22 +2210,22 @@
         <v>31</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="F40" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,25 +2239,25 @@
         <v>142</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="G41" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="H41" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I41" s="24" t="s">
+      <c r="J41" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,19 +2265,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -2494,19 +2285,19 @@
         <v>39</v>
       </c>
       <c r="C43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,7 +2305,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>38</v>
@@ -2531,13 +2322,13 @@
         <v>50</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2548,7 +2339,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>38</v>
@@ -2565,28 +2356,28 @@
         <v>57</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="E47" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="G47" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G47" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="I47" s="26" t="s">
-        <v>153</v>
+      <c r="I47" s="25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,28 +2385,28 @@
         <v>61</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="H48" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="I48" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,13 +2414,13 @@
         <v>66</v>
       </c>
       <c r="B49" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2643,57 +2434,57 @@
         <v>139</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="I50" s="23" t="s">
         <v>202</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="D51" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="F51" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="G51" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="H51" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I51" s="24" t="s">
+      <c r="J51" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,10 +2492,10 @@
         <v>79</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>145</v>
@@ -2718,31 +2509,31 @@
         <v>80</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="D53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="G53" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="H53" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="I53" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="I53" s="26" t="s">
+      <c r="J53" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,28 +2541,28 @@
         <v>86</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H54" s="26" t="s">
+      <c r="I54" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,25 +2570,25 @@
         <v>87</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="D55" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="E55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" s="20" t="s">
+      <c r="H55" s="23" t="s">
         <v>226</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,22 +2596,22 @@
         <v>93</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="F56" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,28 +2619,28 @@
         <v>98</v>
       </c>
       <c r="B57" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="H57" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" s="20" t="s">
         <v>238</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,22 +2648,22 @@
         <v>103</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="E58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,19 +2671,19 @@
         <v>108</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="D59" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="E59" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="F59" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>107</v>
@@ -2903,105 +2694,105 @@
         <v>114</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="D60" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="E61" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="F61" s="20" t="s">
+      <c r="G61" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="H61" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="H61" s="25" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+    </row>
+    <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="21"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+    </row>
+    <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="21" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="32" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="33" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="30" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="31" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3009,8 +2800,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Běžné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Běžné"&amp;12Stránka &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>